--- a/code/out/Fig4/results.xlsx
+++ b/code/out/Fig4/results.xlsx
@@ -14454,13 +14454,13 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.3181879033985619</v>
+        <v>0.3181879252945874</v>
       </c>
       <c r="C2">
-        <v>0.2871654021356164</v>
+        <v>0.2869482594612588</v>
       </c>
       <c r="D2">
-        <v>0.3551598345224701</v>
+        <v>0.3553664789255234</v>
       </c>
     </row>
   </sheetData>
@@ -14623,10 +14623,10 @@
         <v>0.7476239177299094</v>
       </c>
       <c r="C2">
-        <v>0.6870440372711626</v>
+        <v>0.6871337147802646</v>
       </c>
       <c r="D2">
-        <v>0.8054152108056499</v>
+        <v>0.8059207520834171</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -14637,10 +14637,10 @@
         <v>0.7476239177299094</v>
       </c>
       <c r="C3">
-        <v>0.6870440372711626</v>
+        <v>0.6871337147802646</v>
       </c>
       <c r="D3">
-        <v>0.8054152108056499</v>
+        <v>0.8059207520834171</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -14651,10 +14651,10 @@
         <v>0.7476239177299094</v>
       </c>
       <c r="C4">
-        <v>0.6870440372711626</v>
+        <v>0.6871337147802646</v>
       </c>
       <c r="D4">
-        <v>0.8054152108056499</v>
+        <v>0.8059207520834171</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -14665,10 +14665,10 @@
         <v>0.7476239177299094</v>
       </c>
       <c r="C5">
-        <v>0.6870440372711626</v>
+        <v>0.6871337147802646</v>
       </c>
       <c r="D5">
-        <v>0.8054152108056499</v>
+        <v>0.8059207520834171</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -14679,10 +14679,10 @@
         <v>0.7476239177299094</v>
       </c>
       <c r="C6">
-        <v>0.6870440372711626</v>
+        <v>0.6871337147802646</v>
       </c>
       <c r="D6">
-        <v>0.8054152108056499</v>
+        <v>0.8059207520834171</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -14693,10 +14693,10 @@
         <v>0.7476239177299094</v>
       </c>
       <c r="C7">
-        <v>0.6870440372711626</v>
+        <v>0.6871337147802646</v>
       </c>
       <c r="D7">
-        <v>0.8054152108056499</v>
+        <v>0.8059207520834171</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -14707,10 +14707,10 @@
         <v>0.7476239177299094</v>
       </c>
       <c r="C8">
-        <v>0.6870440372711626</v>
+        <v>0.6871337147802646</v>
       </c>
       <c r="D8">
-        <v>0.8054152108056499</v>
+        <v>0.8059207520834171</v>
       </c>
     </row>
   </sheetData>
@@ -14745,13 +14745,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.006898661720479865</v>
+        <v>0.006898662195209643</v>
       </c>
       <c r="C2">
-        <v>0.002073469668532552</v>
+        <v>0.00207346967085934</v>
       </c>
       <c r="D2">
-        <v>0.01026971925233582</v>
+        <v>0.01026972005056173</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -14759,13 +14759,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02371643239556834</v>
+        <v>0.02371643391467799</v>
       </c>
       <c r="C3">
-        <v>0.01627512151125325</v>
+        <v>0.01627512157197501</v>
       </c>
       <c r="D3">
-        <v>0.03156416527604005</v>
+        <v>0.03156416526404093</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -14773,13 +14773,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.06380451461862396</v>
+        <v>0.06380451853501229</v>
       </c>
       <c r="C4">
-        <v>0.05513492461052745</v>
+        <v>0.05513492459304134</v>
       </c>
       <c r="D4">
-        <v>0.07219434235407612</v>
+        <v>0.07219434257481534</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -14787,13 +14787,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.135532145269497</v>
+        <v>0.1355321531901557</v>
       </c>
       <c r="C5">
-        <v>0.1258647893124268</v>
+        <v>0.1258647891862041</v>
       </c>
       <c r="D5">
-        <v>0.1447303165545417</v>
+        <v>0.1447303153111899</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -14801,13 +14801,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2193483029188658</v>
+        <v>0.2193483147231085</v>
       </c>
       <c r="C6">
-        <v>0.2091512959380382</v>
+        <v>0.2091512960273518</v>
       </c>
       <c r="D6">
-        <v>0.2295534971084741</v>
+        <v>0.2295534968935178</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -14815,13 +14815,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2991142344859365</v>
+        <v>0.2991142489712019</v>
       </c>
       <c r="C7">
-        <v>0.2875314813468412</v>
+        <v>0.2875314810145992</v>
       </c>
       <c r="D7">
-        <v>0.3105655180058212</v>
+        <v>0.3105655156138989</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -14829,13 +14829,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3657905736155229</v>
+        <v>0.3657905892432789</v>
       </c>
       <c r="C8">
-        <v>0.3541087840179275</v>
+        <v>0.3541087835604115</v>
       </c>
       <c r="D8">
-        <v>0.3807221421688731</v>
+        <v>0.3807221418431584</v>
       </c>
     </row>
   </sheetData>
